--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3532.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3532.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.401542757408211</v>
+        <v>1.119630336761475</v>
       </c>
       <c r="B1">
-        <v>2.728482735501905</v>
+        <v>1.412433385848999</v>
       </c>
       <c r="C1">
-        <v>2.929260951398025</v>
+        <v>1.377718448638916</v>
       </c>
       <c r="D1">
-        <v>2.188436365616906</v>
+        <v>1.578975081443787</v>
       </c>
       <c r="E1">
-        <v>0.8093215700270182</v>
+        <v>1.296739816665649</v>
       </c>
     </row>
   </sheetData>
